--- a/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,73 +46,94 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cracked</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>filters</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>after</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>sent</t>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
   </si>
   <si>
     <t>received</t>
@@ -121,127 +142,142 @@
     <t>worked</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>if</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -602,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,16 +728,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>0.8064516129032258</v>
+        <v>0.8203125</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,16 +778,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>0.78125</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,16 +828,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>0.7608695652173914</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8679245283018868</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.7089783281733746</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>188</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.864406779661017</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.7016949152542373</v>
+        <v>0.5928792569659442</v>
       </c>
       <c r="L7">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="M7">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>88</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8269230769230769</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.6060606060606061</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.825</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K9">
-        <v>0.5454545454545454</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8108108108108109</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>0.4868421052631579</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7945205479452054</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.3771428571428572</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.3698630136986301</v>
+        <v>0.1637239165329053</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>46</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6814814814814815</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.2702702702702703</v>
+        <v>0.05342465753424658</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>81</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.676923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.2538152610441767</v>
+        <v>0.02023121387283237</v>
       </c>
       <c r="L14">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>929</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6619718309859155</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,31 +1325,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="L15">
-        <v>22</v>
-      </c>
-      <c r="M15">
-        <v>22</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6617647058823529</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,45 +1351,21 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16">
-        <v>0.1547945205479452</v>
-      </c>
-      <c r="L16">
-        <v>113</v>
-      </c>
-      <c r="M16">
-        <v>113</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6444444444444445</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,45 +1377,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17">
-        <v>0.03128371089536138</v>
-      </c>
-      <c r="L17">
-        <v>29</v>
-      </c>
-      <c r="M17">
-        <v>31</v>
-      </c>
-      <c r="N17">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6226415094339622</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>1143</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>1143</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,71 +1403,47 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18">
-        <v>0.03084832904884319</v>
-      </c>
-      <c r="L18">
-        <v>24</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>0.86</v>
-      </c>
-      <c r="O18">
-        <v>0.14</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6190476190476191</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6153846153846154</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5891472868217055</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5743243243243243</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1567,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5221238938053098</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1593,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5172413793103449</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1619,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4551282051282051</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C25">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1645,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.44</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1671,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4363636363636363</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1697,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4326923076923077</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1723,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4022346368715084</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="C29">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1749,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1775,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3592233009708738</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1801,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.32</v>
+        <v>0.2825278810408922</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1827,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1835,13 +1775,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2989690721649484</v>
+        <v>0.2755555555555556</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1853,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1861,13 +1801,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2936507936507937</v>
+        <v>0.2723492723492724</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1879,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>89</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1887,13 +1827,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2894736842105263</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1905,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1913,13 +1853,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2626262626262627</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1931,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1939,13 +1879,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2619047619047619</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1957,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1965,13 +1905,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2533692722371967</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="C38">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1983,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>277</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1991,13 +1931,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2525252525252525</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2009,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2017,13 +1957,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1981981981981982</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2035,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>89</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2043,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1931034482758621</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2061,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>117</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2069,13 +2009,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1904761904761905</v>
+        <v>0.125</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2087,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>238</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2095,13 +2035,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1854304635761589</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2113,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2121,13 +2061,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1685393258426966</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2139,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>148</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2147,25 +2087,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1580381471389646</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C45">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>618</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2173,13 +2113,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1337792642140468</v>
+        <v>0.06236559139784946</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2191,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>259</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2199,13 +2139,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1236559139784946</v>
+        <v>0.0580046403712297</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2217,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>163</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2225,13 +2165,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1135371179039301</v>
+        <v>0.05783582089552239</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2243,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>203</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2251,25 +2191,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1018276762402089</v>
+        <v>0.05741127348643006</v>
       </c>
       <c r="C49">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D49">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>688</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2277,13 +2217,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07317073170731707</v>
+        <v>0.05518763796909492</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2295,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>380</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2303,25 +2243,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05326876513317191</v>
+        <v>0.05493562231759656</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E51">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>391</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2329,25 +2269,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03125</v>
+        <v>0.04823989569752282</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1116</v>
+        <v>730</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2355,25 +2295,441 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.02535211267605634</v>
+        <v>0.0446521287642783</v>
       </c>
       <c r="C53">
+        <v>301</v>
+      </c>
+      <c r="D53">
+        <v>305</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>0.99</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.03897550111358575</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.03732394366197183</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>0.04</v>
+      </c>
+      <c r="F56">
+        <v>0.96</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.03682934222491664</v>
+      </c>
+      <c r="C57">
+        <v>243</v>
+      </c>
+      <c r="D57">
+        <v>245</v>
+      </c>
+      <c r="E57">
+        <v>0.01</v>
+      </c>
+      <c r="F57">
+        <v>0.99</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.03300645778521884</v>
+      </c>
+      <c r="C58">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <v>0.99</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.03183023872679045</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.02909298345693098</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>53</v>
+      </c>
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>0.96</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.02824368613842298</v>
+      </c>
+      <c r="C61">
+        <v>293</v>
+      </c>
+      <c r="D61">
+        <v>301</v>
+      </c>
+      <c r="E61">
+        <v>0.03</v>
+      </c>
+      <c r="F61">
+        <v>0.97</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.02180376610505451</v>
+      </c>
+      <c r="C62">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>0.04</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.02163275817666753</v>
+      </c>
+      <c r="C63">
+        <v>84</v>
+      </c>
+      <c r="D63">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+      <c r="F63">
+        <v>0.95</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.02039082412914189</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
         <v>27</v>
       </c>
-      <c r="D53">
-        <v>34</v>
-      </c>
-      <c r="E53">
-        <v>0.21</v>
-      </c>
-      <c r="F53">
-        <v>0.79</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1038</v>
+      <c r="E64">
+        <v>0.11</v>
+      </c>
+      <c r="F64">
+        <v>0.89</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.01780645161290323</v>
+      </c>
+      <c r="C65">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>0.04</v>
+      </c>
+      <c r="F65">
+        <v>0.96</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.01447906830343091</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="F66">
+        <v>0.85</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.01295620437956204</v>
+      </c>
+      <c r="C67">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>0.11</v>
+      </c>
+      <c r="F67">
+        <v>0.89</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>0.03</v>
+      </c>
+      <c r="F68">
+        <v>0.97</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.006939625260235947</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="E69">
+        <v>0.33</v>
+      </c>
+      <c r="F69">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
